--- a/test/fixture/snapshot/cli/sort-format/collection-high-value/premodern/high-value/premodern-high-value-uncommon.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/collection-high-value/premodern/high-value/premodern-high-value-uncommon.xlsx
@@ -23,13 +23,35 @@
       <text>
         <r>
           <t xml:space="preserve">Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <t>Return target nonland permanent to its owner's hand. Then that permanent's controller may sacrifice a land of their choice. If the player does, they may copy this spell and may choose a new target for that copy.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <t>➤ 1 blue</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Border: black
 Finish: normal
 Keywords:
 ➤ Enchant</t>
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Enchant enchantment
@@ -37,32 +59,10 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <t>➤ 2 blue</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <t>Return target nonland permanent to its owner's hand. Then that permanent's controller may sacrifice a land of their choice. If the player does, they may copy this spell and may choose a new target for that copy.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0">
-      <text>
-        <r>
-          <t>➤ 1 blue</t>
         </r>
       </text>
     </comment>
@@ -150,7 +150,7 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 1/2
+          <t xml:space="preserve">Game Changer
 Border: black
 Finish: normal</t>
         </r>
@@ -159,8 +159,7 @@
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Discard a card: This creature gets +1/+1 until end of turn.
-Exile two cards from your graveyard: This creature gets +1/+1 until end of turn.</t>
+          <t>Whenever a creature you control enters, you may destroy target artifact or enchantment.</t>
         </r>
       </text>
     </comment>
@@ -168,15 +167,15 @@
       <text>
         <r>
           <t xml:space="preserve">➤ 1 generic
-➤ 1 blue
-➤ 1 black</t>
+➤ 1 green
+➤ 1 white</t>
         </r>
       </text>
     </comment>
     <comment ref="D4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Game Changer
+          <t xml:space="preserve">P/T: 1/2
 Border: black
 Finish: normal</t>
         </r>
@@ -185,7 +184,8 @@
     <comment ref="E4" authorId="0">
       <text>
         <r>
-          <t>Whenever a creature you control enters, you may destroy target artifact or enchantment.</t>
+          <t xml:space="preserve">Discard a card: This creature gets +1/+1 until end of turn.
+Exile two cards from your graveyard: This creature gets +1/+1 until end of turn.</t>
         </r>
       </text>
     </comment>
@@ -193,8 +193,8 @@
       <text>
         <r>
           <t xml:space="preserve">➤ 1 generic
-➤ 1 green
-➤ 1 white</t>
+➤ 1 blue
+➤ 1 black</t>
         </r>
       </text>
     </comment>
@@ -250,10 +250,37 @@
     <t>Scryfall Link</t>
   </si>
   <si>
-    <t>Steal Enchantment</t>
+    <t>Chain of Vapor</t>
   </si>
   <si>
     <t>premodern</t>
+  </si>
+  <si>
+    <t>Instant</t>
+  </si>
+  <si>
+    <t>ons</t>
+  </si>
+  <si>
+    <t>Onslaught</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>{U}</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>13.52</t>
+  </si>
+  <si>
+    <t>Open Chain of Vapor</t>
+  </si>
+  <si>
+    <t>Steal Enchantment</t>
   </si>
   <si>
     <t>Enchantment</t>
@@ -274,37 +301,10 @@
     <t>{U}{U}</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>12.05</t>
   </si>
   <si>
     <t>Open Steal Enchantment</t>
-  </si>
-  <si>
-    <t>Chain of Vapor</t>
-  </si>
-  <si>
-    <t>Instant</t>
-  </si>
-  <si>
-    <t>ons</t>
-  </si>
-  <si>
-    <t>Onslaught</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>{U}</t>
-  </si>
-  <si>
-    <t>13.52</t>
-  </si>
-  <si>
-    <t>Open Chain of Vapor</t>
   </si>
   <si>
     <t>Premodern - High Value (Uncommon) - Black</t>
@@ -364,6 +364,30 @@
     <t>Premodern - High Value (Uncommon) - Multicolor</t>
   </si>
   <si>
+    <t>Aura Shards</t>
+  </si>
+  <si>
+    <t>inv</t>
+  </si>
+  <si>
+    <t>Invasion</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>{1}{G}{W}</t>
+  </si>
+  <si>
+    <t>G, W</t>
+  </si>
+  <si>
+    <t>20.09</t>
+  </si>
+  <si>
+    <t>Open Aura Shards</t>
+  </si>
+  <si>
     <t>Psychatog</t>
   </si>
   <si>
@@ -392,30 +416,6 @@
   </si>
   <si>
     <t>Open Psychatog</t>
-  </si>
-  <si>
-    <t>Aura Shards</t>
-  </si>
-  <si>
-    <t>inv</t>
-  </si>
-  <si>
-    <t>Invasion</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>{1}{G}{W}</t>
-  </si>
-  <si>
-    <t>G, W</t>
-  </si>
-  <si>
-    <t>20.09</t>
-  </si>
-  <si>
-    <t>Open Aura Shards</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -499,21 +499,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF777777"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -537,10 +522,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -978,7 +963,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>16</v>
@@ -987,48 +972,48 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="7">
-        <v>2</v>
+      <c r="L3" s="7" t="s">
+        <v>22</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="B4" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>27</v>
@@ -1046,13 +1031,13 @@
         <v>31</v>
       </c>
       <c r="J4" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>32</v>
@@ -4373,10 +4358,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>36</v>
@@ -7717,10 +7702,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>45</v>
@@ -11054,60 +11039,60 @@
         <v>53</v>
       </c>
       <c r="B3" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="J3" s="7">
         <v>3</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="B4" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>64</v>
